--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62849F78-F4D7-4400-969A-32CC6A00D424}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554D70AB-F6D6-421C-9949-EF8994227499}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,14 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,3,5; 2,4,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#FF0000, #FFA500, #0000FF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-100,9000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,26 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TB_Basic_2_3_Contol_Tone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_BaseICI_2_4_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Ratio_2_3.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Oscillation_250_125_60_30_BF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_Var_200_100_50_25_10_Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Offset_Duration_Effect_8ms_Reg_New</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,17 +261,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reg2-3, reg3-2,  irreg2-3-Rep2, irreg3-2-Rep2, Tone500-333,Tone333-500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3003.2,3002.7,2993.4,2993.1,2666.7,2750</t>
   </si>
   <si>
-    <t>2007,2001.2,1997.8,1998.4,2000,2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-2500,1500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,34 +280,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reg2-3, reg3-2, reg4-6, reg6-4,reg8-12, reg12-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,2,3,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,6,8,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2,6,4,12,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007,2001.2,2001.9,1998.2,2001.9,2004.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E:\RatLinearArray\RatSounds\2022-12-20_RLA_Ratio\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reg2-2,reg2-2o2,reg2-2o6,reg2-3,reg2-3o4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3003.2,3002.7,2998,2995.2,2986,2997.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> Reg-250ms, Reg-125ms, Reg-60ms, Reg-30ms,Reg-Control, BF-60ms,BF-30ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6000,6000,6000,6000,6000,6000,6000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,14 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>u/200, u/100, u/50, u/25, u/10, reg-Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1998,1996.1,1998.1,1998,1996.2,2007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2990.7,2988.8,2990.9,2990.6,2987.1,3008.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#FF0000, #FFA500, #00FF00, #0000FF, #000000, #AAAAAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,10 +436,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>250,125,60,30,1000,60,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Offset_256_512_10s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,6 +449,86 @@
   </si>
   <si>
     <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_TB_Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNP_TB_BaseICI</t>
+  </si>
+  <si>
+    <t>RNP_TB_Ratio</t>
+  </si>
+  <si>
+    <t>RNP_TB_Oscillation</t>
+  </si>
+  <si>
+    <t>RNP_TB_Jitter</t>
+  </si>
+  <si>
+    <t>reg2-2o2, reg2o2-2,Reg2-2o2N4,Reg2o2-2M4,Reg2,Reg2o2,Reg2-2o2Norm,Reg2o2-2Norm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007,2001.2,2007,2001.2,2007,2001.2,2007,2001.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2.2,2,2.2,2,2.2,2,2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2,2,2.2,2,2,2.2,2.2,2,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5,7; 2,4,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg2-2o2, reg4-4o4, reg8-8o8, reg16-17o6,reg32-35o2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007,2001.9,2001.9,2000.6,2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,8,16,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2,4.4,8.8,17.6,35.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg2-2o2,Jitter0-20,Jitter20-40,Jitter40-60,Jitter60-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg2-2,Reg2-2o2,Reg2-2o6,reg2-3,reg2-3o4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007,2012.2,2012.3,2012.2,2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg-200ms, Reg-100ms, Reg-50ms, Reg-25ms, Tone-50ms,Tone-25ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,100,50,25,50,25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -973,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>19</v>
@@ -1045,33 +1041,33 @@
         <v>16</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="11"/>
@@ -1079,7 +1075,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="13"/>
@@ -1101,42 +1097,42 @@
       </c>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1145,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P3" s="15">
         <v>12</v>
@@ -1154,57 +1150,57 @@
         <v>4</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="U3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
+        <v>125</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
       </c>
       <c r="M4" s="6">
         <v>1</v>
@@ -1213,63 +1209,63 @@
         <v>6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P4" s="15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="15">
         <v>4</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="U4" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -1281,7 +1277,7 @@
         <v>6</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P5" s="15">
         <v>8</v>
@@ -1290,54 +1286,54 @@
         <v>4</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="U5" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>15</v>
@@ -1349,7 +1345,7 @@
         <v>6</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P6" s="15">
         <v>12</v>
@@ -1358,57 +1354,57 @@
         <v>4</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="U6" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1417,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P7" s="15">
         <v>8</v>
@@ -1426,54 +1422,54 @@
         <v>4</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S7" t="s">
-        <v>98</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="U7" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -1494,57 +1490,57 @@
         <v>6</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="M9" s="22">
         <v>1</v>
@@ -1553,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="P9" s="24">
         <v>12</v>
@@ -1562,54 +1558,54 @@
         <v>6</v>
       </c>
       <c r="R9" s="18" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="T9" s="23" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
@@ -1621,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P10" s="15">
         <v>12</v>
@@ -1630,54 +1626,54 @@
         <v>6</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -1689,7 +1685,7 @@
         <v>6</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P11" s="15">
         <v>12</v>
@@ -1698,54 +1694,54 @@
         <v>6</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s">
         <v>14</v>
@@ -1757,7 +1753,7 @@
         <v>6</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P12" s="15">
         <v>8</v>
@@ -1766,19 +1762,19 @@
         <v>4</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U12" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD50943-90EC-4146-A0C1-22ECCCA29025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF1B45-0AD5-4348-A9F3-D946E464ECCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,14 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,4,8,8,20,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.06,4.06,8.12,8.12,20.3,20.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>500,250,125,60,30,4,60,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -907,69 +899,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4ms-Var50-v1,4ms-Var2-v1,4ms-Var50-v2,4ms-Var2-v2,4ms-Var50-v3,4ms-Var2-v3,4ms-Var50-v4,4ms-Var2-v4,4ms-Var50-v5,4ms-Var2-v5,4ms-Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>511,508.2,511,508.2,511,508.2,511,508.2,511,508.2,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,1,3,5,7,9;11,2,4,6,8,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #00FF00, #0000FF, #000000, #AAAAAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2500,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Variance_Last_N4_8_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms_Reg,4ms_Last4,4ms_Last8,4ms_Last16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512.5,505.4,506.4,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_1_64_4s_MGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,8,16,32,64,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Offset_Variance_Effect_4ms_sigma50_2_500msReg</t>
-  </si>
-  <si>
-    <t>4ms-Var50-v1,4ms-Var2-v1,4ms-Var50-v2,4ms-Var2-v2,4ms-Var50-v3,4ms-Var2-v3,4ms-Var50-v4,4ms-Var2-v4,4ms-Var50-v5,4ms-Var2-v5,4ms-Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>511,508.2,511,508.2,511,508.2,511,508.2,511,508.2,508.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11,1,3,5,7,9;11,2,4,6,8,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#FF0000, #FFA500, #00FF00, #0000FF, #000000, #AAAAAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4,4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4,4,4,4,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2500,1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset_Variance_Last_N4_8_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ms_Reg,4ms_Last4,4ms_Last8,4ms_Last16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512.5,505.4,506.4,508.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset_1_64_4s_MGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,noise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,4,8,16,32,64,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,8,8,16,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.06,4.06,8.12,8.12,16.24,16.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,8 +1389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1436,10 +1437,10 @@
         <v>42</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>93</v>
@@ -1451,42 +1452,42 @@
         <v>95</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S1" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T1" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="V1" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="15"/>
@@ -1494,7 +1495,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="16"/>
       <c r="G2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="17"/>
@@ -1509,10 +1510,10 @@
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V2" s="16"/>
     </row>
@@ -1886,7 +1887,7 @@
         <v>111</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1904,7 +1905,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>56</v>
@@ -1913,13 +1914,13 @@
         <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>98</v>
@@ -1931,7 +1932,7 @@
         <v>113</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1940,7 +1941,7 @@
         <v>6</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P13" s="19">
         <v>12</v>
@@ -1949,19 +1950,19 @@
         <v>4</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -1972,7 +1973,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>65</v>
@@ -1981,25 +1982,25 @@
         <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M14" s="10">
         <v>1</v>
@@ -2008,7 +2009,7 @@
         <v>6</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P14" s="19">
         <v>12</v>
@@ -2017,19 +2018,19 @@
         <v>4</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -2049,13 +2050,13 @@
         <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>98</v>
@@ -2067,7 +2068,7 @@
         <v>107</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2076,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P15" s="19">
         <v>8</v>
@@ -2085,24 +2086,24 @@
         <v>4</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>64</v>
@@ -2120,22 +2121,22 @@
         <v>92</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M16" s="10">
         <v>1</v>
@@ -2144,7 +2145,7 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P16" s="19">
         <v>12</v>
@@ -2153,19 +2154,19 @@
         <v>4</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -2185,13 +2186,13 @@
         <v>83</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>98</v>
@@ -2203,7 +2204,7 @@
         <v>101</v>
       </c>
       <c r="L17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2212,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P17" s="19">
         <v>8</v>
@@ -2221,57 +2222,57 @@
         <v>4</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M18" s="10">
         <v>1</v>
@@ -2280,7 +2281,7 @@
         <v>6</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P18" s="10">
         <v>8</v>
@@ -2289,19 +2290,19 @@
         <v>6</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
@@ -2315,31 +2316,31 @@
         <v>85</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M19" s="10">
         <v>1</v>
@@ -2348,7 +2349,7 @@
         <v>6</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P19" s="19">
         <v>12</v>
@@ -2357,19 +2358,19 @@
         <v>6</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="57" x14ac:dyDescent="0.2">
@@ -2380,34 +2381,34 @@
         <v>61</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -2416,7 +2417,7 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P20" s="19">
         <v>12</v>
@@ -2425,19 +2426,19 @@
         <v>6</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
@@ -2457,25 +2458,25 @@
         <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -2484,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P21" s="19">
         <v>8</v>
@@ -2493,19 +2494,19 @@
         <v>4</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
@@ -2525,25 +2526,25 @@
         <v>91</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -2552,7 +2553,7 @@
         <v>6</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P22" s="10">
         <v>12</v>
@@ -2561,57 +2562,57 @@
         <v>4</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="E23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M23" s="10">
         <v>1</v>
@@ -2620,7 +2621,7 @@
         <v>6</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P23" s="10">
         <v>8</v>
@@ -2629,57 +2630,57 @@
         <v>6</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2688,7 +2689,7 @@
         <v>6</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P24" s="19">
         <v>12</v>
@@ -2697,57 +2698,57 @@
         <v>6</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2756,7 +2757,7 @@
         <v>6</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P25" s="19">
         <v>12</v>
@@ -2765,57 +2766,57 @@
         <v>6</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -2824,7 +2825,7 @@
         <v>6</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P26" s="19">
         <v>8</v>
@@ -2833,57 +2834,57 @@
         <v>4</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -2892,7 +2893,7 @@
         <v>6</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P27" s="19">
         <v>8</v>
@@ -2901,54 +2902,54 @@
         <v>4</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="57" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -2957,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P28" s="19">
         <v>8</v>
@@ -2966,42 +2967,42 @@
         <v>4</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>96</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>98</v>
@@ -3010,10 +3011,10 @@
         <v>108</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -3022,7 +3023,7 @@
         <v>6</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P29" s="19">
         <v>8</v>
@@ -3031,57 +3032,57 @@
         <v>4</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M30" s="10">
         <v>1</v>
@@ -3090,7 +3091,7 @@
         <v>6</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P30" s="10">
         <v>8</v>
@@ -3099,19 +3100,19 @@
         <v>6</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFF1B45-0AD5-4348-A9F3-D946E464ECCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F4F91A-1283-4B79-AF57-B36CA4CC66FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="243">
   <si>
     <t>paradigm</t>
   </si>
@@ -930,22 +930,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4ms_Reg,4ms_Last4,4ms_Last8,4ms_Last16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512.5,505.4,506.4,508.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Offset_1_64_4s_MGB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,6 +955,18 @@
   </si>
   <si>
     <t>4.06,4.06,8.12,8.12,16.24,16.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms_Reg,4ms_Last4,4ms_Last8,4ms_Last16,4ms_Last32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512.5,505.4,506.4,508.5,504.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #AAAAAA,#000000,#0000FF,#FFA500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1994,10 +1990,10 @@
         <v>98</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>160</v>
@@ -2919,7 +2915,7 @@
     </row>
     <row r="28" spans="1:22" ht="57" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>225</v>
@@ -2982,18 +2978,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>96</v>
@@ -3008,13 +3004,13 @@
         <v>98</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -3035,7 +3031,7 @@
         <v>149</v>
       </c>
       <c r="S29" s="10" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="T29" s="12" t="s">
         <v>153</v>
@@ -3049,19 +3045,19 @@
     </row>
     <row r="30" spans="1:22" ht="57" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>120</v>
@@ -3076,10 +3072,10 @@
         <v>98</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s">
         <v>127</v>

--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5436FF-135F-423F-9060-BA39953B6EA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4458EA-2DBE-4F98-A5F2-BB7619656115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="148">
   <si>
     <t>paradigm</t>
   </si>
@@ -245,226 +245,342 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-14_MLA_Offset_4_DiffDur_Gen\offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-19_MLA_Offset_Var_4_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-12-14_MLA_Offset_16_DiffDur_Gen\offset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1021.1,508.5,252.2,124.1,60.1,28,12,4,128,1024,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,1,1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5;5,6,7,8,11;10,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4;4,5,6,7;9,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1200,1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-500,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-700,600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>490.1,502.2,509.7,508.5,496.2,508.2,508.2,511,511.2,508.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for CSD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-700,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008.3,496.2,240.1,112,48,16,0,128,1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16ms-D1024,16ms-D512,16ms-D256,16ms-D128,16ms-D64,16ms-D32,16ms-D16,Noise-D128,Noise-D1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D64,4ms-D32,4ms-D16,4ms-D8,Noise-D128,Noise-D1024,4ms-D4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_1_64_4s_MGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,8,16,32,64,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms_Reg,4ms_Last4,4ms_Last8,4ms_Last16,4ms_Last32,4ms_RegDur128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512.5,505.4,506.4,508.5,504.4,128.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000, #AAAAAA,#000000,#0000FF,#FFA500,#00FFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB_BaseICI_4_8_16</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-11-17_MLA_Basic_4_8_16_Rep\interval 0\</t>
+  </si>
+  <si>
+    <t>reg4-4o06, reg4o06-4, reg8-8o12, reg8o12-8,reg16-16o24, reg16o24-16</t>
+  </si>
+  <si>
+    <t>2001.9, 2004.2, 2001.9, 1997.6, 2000.6, 1997.6</t>
+  </si>
+  <si>
+    <t>4006.1, 4006.1, 3999.5, 3999.5, 3998.2, 3998.2</t>
+  </si>
+  <si>
+    <t>-2500,2500</t>
+  </si>
+  <si>
+    <t>-2100,2000</t>
+  </si>
+  <si>
+    <t>100, 1900</t>
+  </si>
+  <si>
+    <t>-1000, 1000</t>
+  </si>
+  <si>
+    <t>4,4,8,8,20,20</t>
+  </si>
+  <si>
+    <t>4.06,4.06,8.12,8.12,20.3,20.3</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF</t>
+  </si>
+  <si>
+    <t>-2100,1000</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-200, 500</t>
+  </si>
+  <si>
+    <t>1,3,5; 2,4,6</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_v2</t>
+  </si>
+  <si>
+    <t>E:\ratNeuroPixel\monkeySounds\2022-11-17_MLA_Basic_4_4o04_Ratio\interval 0\</t>
+  </si>
+  <si>
+    <t>reg4-4,reg4-4o01,reg4-4o02,reg4-4o03,reg4-4o04</t>
+  </si>
+  <si>
+    <t>2001.9, 2001.9, 2001.9, 2001.9, 2001.9</t>
+  </si>
+  <si>
+    <t>4003.9, 4005, 4006, 4003.1, 4004.1</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>4,4.01,4.02,4.03,4.04</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000, #AAAAAA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5,4,3,2,1</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>TB_Ratio_4_4o04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Variance_Last_N4_8_16_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1500,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2000,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intrinsic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10sPrior,9sAfterClick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_Intrinsic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>segPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordr2Onset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acfWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1e4:5e3:5e3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-1500,1500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E:\ratNeuroPixel\monkeySounds\2022-12-14_MLA_Offset_4_DiffDur_Gen\offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\ratNeuroPixel\monkeySounds\2022-12-19_MLA_Offset_Var_4_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\ratNeuroPixel\monkeySounds\2022-12-14_MLA_Offset_16_DiffDur_Gen\offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1021.1,508.5,252.2,124.1,60.1,28,12,4,128,1024,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4,4,4,1,1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4,4,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5;5,6,7,8,11;10,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4;4,5,6,7;9,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1000,1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1200,1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-500,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-700,600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>490.1,502.2,509.7,508.5,496.2,508.2,508.2,511,511.2,508.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>for CSD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-700,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1008.3,496.2,240.1,112,48,16,0,128,1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-200, 1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16ms-D1024,16ms-D512,16ms-D256,16ms-D128,16ms-D64,16ms-D32,16ms-D16,Noise-D128,Noise-D1024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ms-D1024,4ms-D512,4ms-D256,4ms-D128,4ms-D64,4ms-D32,4ms-D16,4ms-D8,Noise-D128,Noise-D1024,4ms-D4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset_Variance_Last_N4_8_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset_1_64_4s_MGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,noise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,4,8,16,32,64,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ms_Reg,4ms_Last4,4ms_Last8,4ms_Last16,4ms_Last32,4ms_RegDur128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512.5,505.4,506.4,508.5,504.4,128.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#FF0000, #AAAAAA,#000000,#0000FF,#FFA500,#00FFFF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TB_BaseICI_4_8_16</t>
-  </si>
-  <si>
-    <t>E:\ratNeuroPixel\monkeySounds\2022-11-17_MLA_Basic_4_8_16_Rep\interval 0\</t>
-  </si>
-  <si>
-    <t>reg4-4o06, reg4o06-4, reg8-8o12, reg8o12-8,reg16-16o24, reg16o24-16</t>
-  </si>
-  <si>
-    <t>2001.9, 2004.2, 2001.9, 1997.6, 2000.6, 1997.6</t>
-  </si>
-  <si>
-    <t>4006.1, 4006.1, 3999.5, 3999.5, 3998.2, 3998.2</t>
+    <t>Offset_1_128_4s_MGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms, Noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2, 4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,8,16,32,64,128,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5;5,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_2048_1024_512_4ms_Reg_New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms-2048,4ms-D1024,4ms-D512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2050,1025,512.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-2500,2500</t>
-  </si>
-  <si>
-    <t>-2100,2000</t>
-  </si>
-  <si>
-    <t>100, 1900</t>
-  </si>
-  <si>
-    <t>-1000, 1000</t>
-  </si>
-  <si>
-    <t>4,4,8,8,20,20</t>
-  </si>
-  <si>
-    <t>4.06,4.06,8.12,8.12,20.3,20.3</t>
-  </si>
-  <si>
-    <t>#FF0000, #FFA500, #0000FF</t>
-  </si>
-  <si>
-    <t>-2100,1000</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-200, 500</t>
-  </si>
-  <si>
-    <t>1,3,5; 2,4,6</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>@MLA_PlotRasterLfp_v2</t>
-  </si>
-  <si>
-    <t>E:\ratNeuroPixel\monkeySounds\2022-11-17_MLA_Basic_4_4o04_Ratio\interval 0\</t>
-  </si>
-  <si>
-    <t>reg4-4,reg4-4o01,reg4-4o02,reg4-4o03,reg4-4o04</t>
-  </si>
-  <si>
-    <t>2001.9, 2001.9, 2001.9, 2001.9, 2001.9</t>
-  </si>
-  <si>
-    <t>4003.9, 4005, 4006, 4003.1, 4004.1</t>
-  </si>
-  <si>
-    <t>4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>4,4.01,4.02,4.03,4.04</t>
-  </si>
-  <si>
-    <t>#FF0000, #FFA500, #0000FF, #000000, #AAAAAA</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5,4,3,2,1</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>TB_Ratio_4_4o04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,6 +588,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -593,6 +712,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -873,37 +998,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="4" customWidth="1"/>
-    <col min="11" max="11" width="23.44140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="69.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="18" width="15.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" customWidth="1"/>
-    <col min="20" max="20" width="20" style="8" customWidth="1"/>
-    <col min="21" max="21" width="13" style="8" customWidth="1"/>
-    <col min="22" max="22" width="31.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="40.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="40.375" style="19" customWidth="1"/>
+    <col min="8" max="9" width="14.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="4" customWidth="1"/>
+    <col min="13" max="13" width="23.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="69.375" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="19" width="15.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15" style="1" customWidth="1"/>
+    <col min="21" max="22" width="15.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="15.875" customWidth="1"/>
+    <col min="24" max="24" width="20" style="8" customWidth="1"/>
+    <col min="25" max="25" width="13" style="8" customWidth="1"/>
+    <col min="26" max="26" width="31.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="14" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -919,73 +1045,85 @@
       <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="14" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="11"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -995,15 +1133,19 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="12"/>
+      <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1019,59 +1161,71 @@
       <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="6">
+      <c r="O3" s="6">
         <v>1</v>
       </c>
-      <c r="N3" s="6">
+      <c r="P3" s="6">
         <v>6</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="6">
+      <c r="R3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" s="6">
         <v>8</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="U3" s="6">
         <v>6</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="W3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1087,529 +1241,865 @@
       <c r="E4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="6">
+      <c r="O4" s="6">
         <v>1</v>
       </c>
-      <c r="N4" s="6">
+      <c r="P4" s="6">
         <v>6</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="6">
+      <c r="R4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" s="6">
         <v>8</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="U4" s="6">
         <v>6</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="Y4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="K5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="M5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T5" s="15">
         <v>12</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="U5" s="6">
         <v>6</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="15">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>6</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="8" t="s">
+      <c r="V5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="Y5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="L6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
         <v>20</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
+      <c r="P6" s="6">
         <v>6</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="15">
+      <c r="Q6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" s="15">
         <v>12</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="U6" s="6">
         <v>6</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="8" t="s">
+      <c r="V6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="Y6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>1</v>
       </c>
-      <c r="N7" s="6">
+      <c r="P7" s="6">
         <v>6</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="15">
+      <c r="Q7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T7" s="15">
         <v>8</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="U7" s="6">
         <v>4</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="W7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8">
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8">
         <v>1</v>
       </c>
-      <c r="N8" s="6">
+      <c r="P8" s="6">
         <v>6</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="15">
+      <c r="Q8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="15">
         <v>8</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="U8" s="6">
         <v>6</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="8" t="s">
+      <c r="W8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="Y8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T9" s="6">
+        <v>8</v>
+      </c>
+      <c r="U9" s="6">
+        <v>6</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" t="s">
+        <v>99</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="L13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="6">
+      <c r="O13" s="6">
         <v>1</v>
       </c>
-      <c r="N9" s="6">
+      <c r="P13" s="6">
         <v>6</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="6">
+      <c r="R13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="T13" s="6">
         <v>8</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="U13" s="6">
         <v>6</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="8" t="s">
+      <c r="W13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="8" t="s">
+      <c r="Y13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
         <v>6</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S10" t="s">
-        <v>105</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="S14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T14" s="15">
+        <v>12</v>
+      </c>
+      <c r="U14" s="6">
+        <v>6</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S11" t="s">
-        <v>116</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>107</v>
+      <c r="W14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4458EA-2DBE-4F98-A5F2-BB7619656115}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9415F3B-498E-4D80-A837-C50136F05CB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="157">
   <si>
     <t>paradigm</t>
   </si>
@@ -416,51 +416,199 @@
     <t>reg4-4,reg4-4o01,reg4-4o02,reg4-4o03,reg4-4o04</t>
   </si>
   <si>
+    <t>4003.9, 4005, 4006, 4003.1, 4004.1</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>4,4.01,4.02,4.03,4.04</t>
+  </si>
+  <si>
+    <t>#FF0000, #FFA500, #0000FF, #000000, #AAAAAA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>5,4,3,2,1</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>TB_Ratio_4_4o04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Variance_Last_N4_8_16_32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1500,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2000,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intrinsic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@MLA_PlotRasterLfp_Intrinsic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>segPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordr2Onset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acfWin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1500,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_1_128_4s_MGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms, Noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2, 4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,4,8,16,32,64,128,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5;5,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_2048_1024_512_4ms_Reg_New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ms-2048,4ms-D1024,4ms-D512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2050,1025,512.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2500,2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3000,1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThreeStatistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg4-4,reg4-4o01,reg4-4o02,reg4-4o03,reg4-4o06,Var4,Var8,Var16,Var32,Var64,Skew1o1,Skew2,Skew4,Skew6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2001.9, 2001.9, 2001.9, 2001.9, 2001.9</t>
-  </si>
-  <si>
-    <t>4003.9, 4005, 4006, 4003.1, 4004.1</t>
-  </si>
-  <si>
-    <t>4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>4,4.01,4.02,4.03,4.04</t>
-  </si>
-  <si>
-    <t>#FF0000, #FFA500, #0000FF, #000000, #AAAAAA</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5,4,3,2,1</t>
-  </si>
-  <si>
-    <t>2,2</t>
-  </si>
-  <si>
-    <t>TB_Ratio_4_4o04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset_Variance_Last_N4_8_16_32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1500,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2000,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intrinsic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001.9, 2001.9, 2001.9, 2001.9,2001.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,4,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4.01,4.02,4.03,4.06,4.06,4.06,4.06,4.06,4.06,4.06,4.06,4.06,4.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5;6,7,8,9,10;6,11,12,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#AAAAAA,#000000,#0000FF,#FFA500,#FF0000</t>
+  </si>
+  <si>
+    <t>0-1s,1-2s,2-3s,3-4s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>segLength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,119 +616,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10sPrior,9sAfterClick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@MLA_PlotRasterLfp_Intrinsic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>segPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordr2Onset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1e4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>acfWin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxLag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1e4:5e3:5e3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1500,1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset_1_128_4s_MGB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1ms,2ms,4ms,8ms,16ms,32ms,64ms,128ms, Noise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4014.1, 4014.1, 4004.1, 4004.1, 4001.5, 4000.2, 4032.2, 3968.2, 4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,4,8,16,32,64,128,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5;5,6,7,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset_2048_1024_512_4ms_Reg_New</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4ms-2048,4ms-D1024,4ms-D512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2050,1025,512.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2500,2500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-3000,1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
+    <r>
+      <t xml:space="preserve">unit:sec
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for Intrinsic</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -629,6 +680,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -677,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -716,6 +775,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -998,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1010,26 +1072,26 @@
     <col min="2" max="2" width="69.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="44.125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="40.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="40.375" style="19" customWidth="1"/>
-    <col min="8" max="9" width="14.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" style="4" customWidth="1"/>
-    <col min="13" max="13" width="23.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="69.375" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="19" width="15.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15" style="1" customWidth="1"/>
-    <col min="21" max="22" width="15.875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.875" customWidth="1"/>
-    <col min="24" max="24" width="20" style="8" customWidth="1"/>
-    <col min="25" max="25" width="13" style="8" customWidth="1"/>
-    <col min="26" max="26" width="31.125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="40.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="19" customWidth="1"/>
+    <col min="9" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23" style="4" customWidth="1"/>
+    <col min="14" max="14" width="23.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="69.375" customWidth="1"/>
+    <col min="16" max="16" width="9.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="20" width="15.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="23" width="15.875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.875" customWidth="1"/>
+    <col min="25" max="25" width="20" style="8" customWidth="1"/>
+    <col min="26" max="26" width="13" style="8" customWidth="1"/>
+    <col min="27" max="27" width="31.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="14" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1046,70 +1108,73 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="T1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="14" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>70</v>
       </c>
@@ -1117,14 +1182,16 @@
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="13"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -1137,15 +1204,16 @@
       <c r="U2" s="13"/>
       <c r="V2" s="13"/>
       <c r="W2" s="13"/>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1162,70 +1230,73 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="6">
+      <c r="P3" s="6">
         <v>1</v>
       </c>
-      <c r="P3" s="6">
+      <c r="Q3" s="6">
         <v>6</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="S3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="T3" s="6">
+        <v>124</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="6">
         <v>8</v>
       </c>
-      <c r="U3" s="6">
+      <c r="V3" s="6">
         <v>6</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="X3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -1242,70 +1313,73 @@
         <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>1</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>6</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="S4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="T4" s="6">
+        <v>124</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="6">
         <v>8</v>
       </c>
-      <c r="U4" s="6">
+      <c r="V4" s="6">
         <v>6</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="X4" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="Y4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1322,70 +1396,73 @@
         <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
         <v>19</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <v>6</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="R5" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T5" s="15">
+        <v>124</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U5" s="15">
         <v>12</v>
       </c>
-      <c r="U5" s="6">
+      <c r="V5" s="6">
         <v>6</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X5" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="Y5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1402,70 +1479,73 @@
         <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>135</v>
+        <v>155</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
         <v>20</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>0</v>
       </c>
-      <c r="P6" s="6">
+      <c r="Q6" s="6">
         <v>6</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="R6" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" s="15">
+        <v>124</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U6" s="15">
         <v>12</v>
       </c>
-      <c r="U6" s="6">
+      <c r="V6" s="6">
         <v>6</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X6" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="Y6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1482,72 +1562,75 @@
         <v>68</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
         <v>19</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>6</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="S7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T7" s="15">
+        <v>124</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U7" s="15">
         <v>8</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <v>4</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="X7" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="X7" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="Y7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>79</v>
@@ -1559,70 +1642,73 @@
         <v>80</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
         <v>81</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>6</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="S8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T8" s="15">
+        <v>124</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="15">
         <v>8</v>
       </c>
-      <c r="U8" s="6">
+      <c r="V8" s="6">
         <v>6</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="X8" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="X8" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="Y8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>75</v>
       </c>
@@ -1639,70 +1725,73 @@
         <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9" s="6">
         <v>1</v>
       </c>
-      <c r="P9" s="6">
+      <c r="Q9" s="6">
         <v>6</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="S9" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="T9" s="6">
+        <v>124</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U9" s="6">
         <v>8</v>
       </c>
-      <c r="U9" s="6">
+      <c r="V9" s="6">
         <v>6</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="6" t="s">
+      <c r="X9" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
@@ -1719,72 +1808,75 @@
         <v>87</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>94</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>6</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="S10" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="T10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>99</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Z10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>102</v>
@@ -1793,313 +1885,408 @@
         <v>103</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="O11" t="s">
         <v>107</v>
       </c>
-      <c r="N11" t="s">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T11" s="1" t="s">
+      <c r="V11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" t="s">
         <v>109</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="Y11" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="X11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z11" s="1" t="s">
+      <c r="Z11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA11" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="N12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="X12" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y12" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="M13" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P13" s="6">
         <v>1</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q13" s="6">
         <v>6</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="T13" s="6">
+      <c r="S13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="U13" s="6">
         <v>8</v>
       </c>
-      <c r="U13" s="6">
+      <c r="V13" s="6">
         <v>6</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W13" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="X13" s="8" t="s">
-        <v>27</v>
+      <c r="X13" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="Y13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="M14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
         <v>19</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>0</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q14" s="6">
         <v>6</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="R14" s="1" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="T14" s="15">
+        <v>117</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U14" s="15">
         <v>12</v>
       </c>
-      <c r="U14" s="6">
+      <c r="V14" s="6">
         <v>6</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>27</v>
+      <c r="W14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="Y14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Z14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9415F3B-498E-4D80-A837-C50136F05CB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4547EF-631F-4FA1-8EFA-A7A7EB6BA368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="205">
   <si>
     <t>paradigm</t>
   </si>
@@ -362,9 +363,6 @@
     <t>reg4-4o06, reg4o06-4, reg8-8o12, reg8o12-8,reg16-16o24, reg16o24-16</t>
   </si>
   <si>
-    <t>2001.9, 2004.2, 2001.9, 1997.6, 2000.6, 1997.6</t>
-  </si>
-  <si>
     <t>4006.1, 4006.1, 3999.5, 3999.5, 3998.2, 3998.2</t>
   </si>
   <si>
@@ -565,27 +563,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reg4-4,reg4-4o01,reg4-4o02,reg4-4o03,reg4-4o06,Var4,Var8,Var16,Var32,Var64,Skew1o1,Skew2,Skew4,Skew6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2001.9, 2001.9, 2001.9, 2001.9, 2001.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001.9, 2001.9, 2001.9, 2001.9,2001.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4,4,4,4,4,4,4,4,4,4,4,4,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,4.01,4.02,4.03,4.06,4.06,4.06,4.06,4.06,4.06,4.06,4.06,4.06,4.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -632,6 +610,219 @@
       </rPr>
       <t>for Intrinsic</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noise_Spon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noiseSpon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2100,2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg4-4,reg4-4o01,reg4-4o02,reg4-4o03,reg4-4o06,Var4,Var8,Var16,Var32,Var64,Skew1o1,Skew2,Skew4,Skew6,control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001.9, 2001.9, 2001.9, 2001.9,2001.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9,1991.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000,4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4.01,4.02,4.03,4.06,4,4,4,4,4,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClickTrain_LocalChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4Insert1,3-4Insert2,3-4Insert4,3-4Insert8,3-4Insert16,3-4Whole,4-3Insert1,4-3Insert2,4-3Insert4,4-3Insert8,4-3Insert16,4-3Whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001.2186,2001.2186,2001.2186,2001.2186,2001.2186,2001.2186,2001.9251,2001.9251,2001.9251,2001.9251,2001.9251,2001.9251</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000,3000,3000,3000,3000,3000,3000,3000,3000,3000,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2500,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3,3,3,4,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,3,3,3,4,4,4,4,4,4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-200,500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6;7,8,9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001.9, 2004.2, 2001.9, 1997.6, 2000.6, 1997.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000,3000,3000,3000,3000,3000,3000,3000,3000,3000,3000,3000,3000,3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#AAAAAA,#000000,#00FFFF,#00FF00,#0000FF,#FFA500,#FF0000, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7;8,9,10,11,12,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001.9, 2001.9, 2001.9, 2001.9, 2001.9, 2001.9, 2001.9, 2001.1,2001.1,2001.1,2001.1,2001.1,2001.1,2001.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4.03Insert1,4-4.03Insert2,4-4.03Insert4,4-4.03Insert8,4-4.03Insert16,4-4.03Insert32,4-4.03Whole,4.03-4Insert1,4.03-4Insert2,4.03-4Insert4,4.03-4Insert8,4.03-4Insert16,4.03-4Insert32,4.03-4Whole</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4.03,4.03,4.03,4.03,4.03,4.03,4.03</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4.03,4.03,4.03,4.03,4.03,4.03,4.03,4</t>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spontaneous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#FF0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale_Before</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intrinsic_Temporal_Scale_After</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,32,64,128,256,512,1024,2000,16,32,64,128,256,512,1024,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2000,1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4,4,4,4,4,4,4,4,4,4,4,4,4,4,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#AAAAAA,#000000,#00FFFF,#00FF00,#0000A5,#0000FF,#FFA500,#FF0000, #AAAAAA,#000000,#00FFFF,#00FF00,#0000A5,#0000FF,#FFA500,#FF0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-200, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8;9,10,11,12,13,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalGlobal_RegInIrreg_0_10_vs_20_30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalGlobal_RegInIrreg_0_5_vs_0_25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-200, 1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des_Insert1,Inc_Insert1,Des_Insert2,Inc_Insert2,Des_Insert4,Inc_Insert4,Des_Insert8,Inc_Insert8,Des_Insert16,Inc_Insert16,Des_Insert32,Inc_Insert32,Des_Insert64,Inc_Insert64,Des_Control,Inc_Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4.06,8,8.12,16,16.24,32,32.48,64,64.96,128,129.92,256, 259.84,2000,2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.06,4,4.06,4,4.06,4,4.06,4,4.06,4,4.06,4,4.06,4,4.06,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,4.06,4,4.06,4,4.06,4,4.06,4,4.06,4,4.06,4,4.06,4,4.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#AAAAAA,#AAAAAA,#000000,#000000,#00FFFF,#00FFFF,#00FF00,#00FF00,#0000A5,#0000A5,#0000FF,#0000FF,#FFA500,#FFA500,#FF0000,#FF0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5,7,9,11,13,15;2,4,6,8,10,12,14,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalGlobal_AllReg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10Insert4,0-10Insert8,0-10Insert16,0-10Insert32,0-10Insert64,0-10Insert128,0-10Insert256,0-10Whole,0-25Insert4,0-25Insert8,0-25Insert16,0-25Insert32,0-25Insert64,0-25Insert128,0-25Insert256,0-25Whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5Insert4,0-5Insert8,0-5Insert16,0-5Insert32,0-5Insert64,0-5Insert128,0-5Insert256,0-5Whole,0-25Insert4,0-25Insert8,0-25Insert16,0-25Insert32,0-25Insert64,0-25Insert128,0-25Insert256,0-25Whole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -780,6 +971,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1060,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,7 +1277,7 @@
     <col min="18" max="20" width="15.875" style="1" customWidth="1"/>
     <col min="21" max="21" width="15" style="1" customWidth="1"/>
     <col min="22" max="23" width="15.875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.875" customWidth="1"/>
+    <col min="24" max="24" width="29.5" customWidth="1"/>
     <col min="25" max="25" width="20" style="8" customWidth="1"/>
     <col min="26" max="26" width="13" style="8" customWidth="1"/>
     <col min="27" max="27" width="31.125" style="1" customWidth="1"/>
@@ -1108,13 +1300,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>5</v>
@@ -1147,10 +1339,10 @@
         <v>29</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U1" s="13" t="s">
         <v>42</v>
@@ -1183,7 +1375,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="18"/>
@@ -1230,13 +1422,13 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>14</v>
@@ -1269,10 +1461,10 @@
         <v>14</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U3" s="6">
         <v>8</v>
@@ -1313,13 +1505,13 @@
         <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>14</v>
@@ -1352,10 +1544,10 @@
         <v>14</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U4" s="6">
         <v>8</v>
@@ -1396,16 +1588,16 @@
         <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>65</v>
@@ -1432,13 +1624,13 @@
         <v>6</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U5" s="15">
         <v>12</v>
@@ -1447,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>63</v>
@@ -1479,16 +1671,16 @@
         <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>65</v>
@@ -1515,13 +1707,13 @@
         <v>6</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U6" s="15">
         <v>12</v>
@@ -1530,7 +1722,7 @@
         <v>6</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>64</v>
@@ -1562,13 +1754,13 @@
         <v>68</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>11</v>
@@ -1601,10 +1793,10 @@
         <v>67</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U7" s="15">
         <v>8</v>
@@ -1630,7 +1822,7 @@
     </row>
     <row r="8" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>79</v>
@@ -1642,13 +1834,13 @@
         <v>80</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -1681,10 +1873,10 @@
         <v>67</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U8" s="15">
         <v>8</v>
@@ -1725,13 +1917,13 @@
         <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
@@ -1764,10 +1956,10 @@
         <v>14</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U9" s="6">
         <v>8</v>
@@ -1802,40 +1994,40 @@
         <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="O10" t="s">
         <v>93</v>
-      </c>
-      <c r="O10" t="s">
-        <v>94</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1844,81 +2036,81 @@
         <v>6</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" t="s">
         <v>98</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Y10" s="8" t="s">
+      <c r="Z10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Z10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:27" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" t="s">
         <v>106</v>
-      </c>
-      <c r="O11" t="s">
-        <v>107</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1927,60 +2119,60 @@
         <v>6</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" t="s">
         <v>108</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Y11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="Y11" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="Z11" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>60</v>
@@ -1995,13 +2187,13 @@
         <v>60</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2013,57 +2205,57 @@
         <v>60</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="X12" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z12" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>14</v>
@@ -2078,10 +2270,10 @@
         <v>12</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
         <v>19</v>
@@ -2096,10 +2288,10 @@
         <v>14</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U13" s="6">
         <v>8</v>
@@ -2111,7 +2303,7 @@
         <v>31</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Y13" s="8" t="s">
         <v>27</v>
@@ -2125,34 +2317,34 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="J14" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>60</v>
@@ -2161,10 +2353,10 @@
         <v>12</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
         <v>19</v>
@@ -2176,13 +2368,13 @@
         <v>6</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U14" s="15">
         <v>12</v>
@@ -2191,10 +2383,10 @@
         <v>6</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y14" s="8" t="s">
         <v>27</v>
@@ -2208,49 +2400,49 @@
     </row>
     <row r="15" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
         <v>145</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15" t="s">
-        <v>151</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2259,34 +2451,600 @@
         <v>6</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="S15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="X15" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="1" t="s">
+    </row>
+    <row r="17" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" t="s">
+        <v>183</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="X15" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA15" s="1" t="s">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" t="s">
+        <v>183</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X19" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>6</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>6</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="X21" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>6</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2294,4 +3052,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC4253E-1772-4BC2-93D5-993F1ED092F9}">
+  <dimension ref="A1:AA1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="327.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="19">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/config/MLA_CTLConfig.xlsx
+++ b/config/MLA_CTLConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4547EF-631F-4FA1-8EFA-A7A7EB6BA368}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218601D-3E03-4C7A-8A01-EB029A9B2120}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="207">
   <si>
     <t>paradigm</t>
   </si>
@@ -824,6 +824,13 @@
   <si>
     <t>0-5Insert4,0-5Insert8,0-5Insert16,0-5Insert32,0-5Insert64,0-5Insert128,0-5Insert256,0-5Whole,0-25Insert4,0-25Insert8,0-25Insert16,0-25Insert32,0-25Insert64,0-25Insert128,0-25Insert256,0-25Whole</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalGlobal_IrregInReg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reg2IrregInsert4,Reg2IrregInsert8,Reg2IrregInsert16,Reg2IrregInsert32,Reg2IrregInsert64,Reg2IrregInsert128,Reg2IrregInsert256,Reg2IrregWhole,0-25Insert4,0-25Insert8,0-25Insert16,0-25Insert32,0-25Insert64,0-25Insert128,0-25Insert256,0-25Whole</t>
   </si>
 </sst>
 </file>
@@ -1252,9 +1259,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3047,6 +3054,86 @@
         <v>37</v>
       </c>
     </row>
+    <row r="23" spans="1:27" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>6</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
